--- a/data/trans_bre/IP1016-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1016-Habitat-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">

--- a/data/trans_bre/IP1016-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1016-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,0</t>
+          <t>-1,54; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,48</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,0</t>
+          <t>-0,63; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1068,6 +1068,13 @@
       <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1016-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1016-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 3,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,0</t>
+          <t>-1,76; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,0</t>
+          <t>-0,53; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">

--- a/data/trans_bre/IP1016-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1016-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,14 +609,14 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -992,94 +992,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,64</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 0,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
